--- a/data/Contextual_Indices_params.xlsx
+++ b/data/Contextual_Indices_params.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesusortizbejar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesusortizbejar/knotion/PFSkit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="6700" windowWidth="25360" windowHeight="15020" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="12700" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="INDICES" sheetId="1" r:id="rId1"/>
-    <sheet name="MATHEFF" sheetId="2" r:id="rId2"/>
-    <sheet name="DISCLISCI" sheetId="3" r:id="rId3"/>
-    <sheet name="INSTMOT" sheetId="4" r:id="rId4"/>
-    <sheet name="SCIEEFF" sheetId="5" r:id="rId5"/>
-    <sheet name="INSTSCIE" sheetId="6" r:id="rId6"/>
-    <sheet name="DISCLIMA" sheetId="7" r:id="rId7"/>
-    <sheet name="DISCLIM" sheetId="8" r:id="rId8"/>
-    <sheet name="STUDREL" sheetId="9" r:id="rId9"/>
+    <sheet name="HOMEPOSCQ" sheetId="13" r:id="rId1"/>
+    <sheet name="INDICES" sheetId="1" r:id="rId2"/>
+    <sheet name="HOMEPOSEM" sheetId="12" r:id="rId3"/>
+    <sheet name="HOMEPOSE" sheetId="11" r:id="rId4"/>
+    <sheet name="HOMEPOS" sheetId="10" r:id="rId5"/>
+    <sheet name="MATHEFF" sheetId="2" r:id="rId6"/>
+    <sheet name="DISCLISCICQ" sheetId="14" r:id="rId7"/>
+    <sheet name="DISCLISCI" sheetId="3" r:id="rId8"/>
+    <sheet name="INSTMOT" sheetId="4" r:id="rId9"/>
+    <sheet name="SCIEEFF" sheetId="5" r:id="rId10"/>
+    <sheet name="INSTSCIE" sheetId="6" r:id="rId11"/>
+    <sheet name="DISCLIMA" sheetId="7" r:id="rId12"/>
+    <sheet name="DISCLIM" sheetId="8" r:id="rId13"/>
+    <sheet name="STUDREL" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="138">
   <si>
     <t>indices</t>
   </si>
@@ -124,12 +129,6 @@
     <t>ST37Q08</t>
   </si>
   <si>
-    <t>DISCLISCI</t>
-  </si>
-  <si>
-    <t>HOMEPOS</t>
-  </si>
-  <si>
     <t>INSTMOT</t>
   </si>
   <si>
@@ -163,9 +162,6 @@
     <t>ST29Q08</t>
   </si>
   <si>
-    <t>tau_3</t>
-  </si>
-  <si>
     <t>ST35Q01</t>
   </si>
   <si>
@@ -293,13 +289,178 @@
   </si>
   <si>
     <t>ST35Q05</t>
+  </si>
+  <si>
+    <t>knotionVarName</t>
+  </si>
+  <si>
+    <t>d_4</t>
+  </si>
+  <si>
+    <t>d_5</t>
+  </si>
+  <si>
+    <t>15-ST011_TA</t>
+  </si>
+  <si>
+    <t>ST011Q01TA</t>
+  </si>
+  <si>
+    <t>15-ST011_1_TA</t>
+  </si>
+  <si>
+    <t>ST011Q02TA</t>
+  </si>
+  <si>
+    <t>15-ST011_2_TA</t>
+  </si>
+  <si>
+    <t>ST011Q03TA</t>
+  </si>
+  <si>
+    <t>15-ST011_3_TA</t>
+  </si>
+  <si>
+    <t>ST011Q04TA</t>
+  </si>
+  <si>
+    <t>15-ST011_4_TA</t>
+  </si>
+  <si>
+    <t>ST011Q05TA</t>
+  </si>
+  <si>
+    <t>15-ST011_5_TA</t>
+  </si>
+  <si>
+    <t>ST011Q06TA</t>
+  </si>
+  <si>
+    <t>15-ST011_6_TA</t>
+  </si>
+  <si>
+    <t>ST011Q07TA</t>
+  </si>
+  <si>
+    <t>15-ST011_7_TA</t>
+  </si>
+  <si>
+    <t>ST011Q08TA</t>
+  </si>
+  <si>
+    <t>15-ST011_8_TA</t>
+  </si>
+  <si>
+    <t>ST011Q09TA</t>
+  </si>
+  <si>
+    <t>15-ST011_9_TA</t>
+  </si>
+  <si>
+    <t>ST011Q10TA</t>
+  </si>
+  <si>
+    <t>15-ST011_10_TA</t>
+  </si>
+  <si>
+    <t>ST011Q11TA</t>
+  </si>
+  <si>
+    <t>15-ST011_11_TA</t>
+  </si>
+  <si>
+    <t>ST011Q12TA</t>
+  </si>
+  <si>
+    <t>15-ST011_12_TA</t>
+  </si>
+  <si>
+    <t>ST011Q16NA</t>
+  </si>
+  <si>
+    <t>15-ST011_13_TA</t>
+  </si>
+  <si>
+    <t>ST011Q17TA</t>
+  </si>
+  <si>
+    <t>15-ST011_14_TA</t>
+  </si>
+  <si>
+    <t>ST011Q18TA</t>
+  </si>
+  <si>
+    <t>15-ST011_15_TA</t>
+  </si>
+  <si>
+    <t>ST011Q019TA</t>
+  </si>
+  <si>
+    <t>15-ST012_TA</t>
+  </si>
+  <si>
+    <t>ST012Q01TA</t>
+  </si>
+  <si>
+    <t>15-ST012_1_TA</t>
+  </si>
+  <si>
+    <t>ST012Q02TA</t>
+  </si>
+  <si>
+    <t>15-ST012_2_TA</t>
+  </si>
+  <si>
+    <t>ST012Q03TA</t>
+  </si>
+  <si>
+    <t>15-ST012_3_TA</t>
+  </si>
+  <si>
+    <t>ST012Q05NA</t>
+  </si>
+  <si>
+    <t>15-ST012_4_TA</t>
+  </si>
+  <si>
+    <t>ST012Q06NA</t>
+  </si>
+  <si>
+    <t>15-ST012_5_TA</t>
+  </si>
+  <si>
+    <t>ST012Q07NA</t>
+  </si>
+  <si>
+    <t>15-ST012_6_TA</t>
+  </si>
+  <si>
+    <t>ST012Q08NA</t>
+  </si>
+  <si>
+    <t>15-ST012_7_TA</t>
+  </si>
+  <si>
+    <t>ST012Q09NA</t>
+  </si>
+  <si>
+    <t>15-ST013TA</t>
+  </si>
+  <si>
+    <t>ST013Q01TA</t>
+  </si>
+  <si>
+    <t>DISCLISCICQ</t>
+  </si>
+  <si>
+    <t>HOMEPOSCQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,19 +475,36 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,20 +516,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,13 +746,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0.996</v>
+      </c>
+      <c r="D2">
+        <v>-0.996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D4">
+        <v>-1.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>2.448</v>
+      </c>
+      <c r="D7">
+        <v>-0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>0.59</v>
+      </c>
+      <c r="D8">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-1.387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0.87</v>
+      </c>
+      <c r="D10">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D11">
+        <v>-1.226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D13">
+        <v>-1.746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>1.256</v>
+      </c>
+      <c r="D14">
+        <v>-1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>1.089</v>
+      </c>
+      <c r="D15">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>1.254</v>
+      </c>
+      <c r="D16">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="D17">
+        <v>-0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>0.623</v>
+      </c>
+      <c r="D18">
+        <v>-0.74</v>
+      </c>
+      <c r="E18">
+        <v>1.905</v>
+      </c>
+      <c r="F18">
+        <v>-0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.437</v>
+      </c>
+      <c r="E20">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="F20">
+        <v>-0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D21">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F21">
+        <v>-0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F22">
+        <v>-0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <v>0.876</v>
+      </c>
+      <c r="D23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E23">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F23">
+        <v>-0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D24">
+        <v>1.796</v>
+      </c>
+      <c r="E24">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.125</v>
+      </c>
+      <c r="F25">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.84</v>
+      </c>
+      <c r="E26">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G26">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="H26">
+        <v>-0.28599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1.93</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-0.63</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1.49</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1.55</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.48</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.61</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.43</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1.46</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-0.21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-3.46</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-3.62</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-3.66</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-3.76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1.9113</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-2.7887</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.57369999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.8009999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2.6179999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.0952999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-2.3997000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.3987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.3637000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-3.0072999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.15629999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-2.1122999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-2.5987</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.1797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35915999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-2.0634600000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.61397999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.19733999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1.7377899999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.50654999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-9.9430000000000004E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1.5424</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.41860999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.30906</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1.7149399999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.55403000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.14801</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1.44841</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.40605999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-0.25440000000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-2.6179299999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.67095000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.7009999999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2.5816599999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.58552999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.26661000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-2.6389100000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.47193000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.11302</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-2.2362899999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.77270000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-2.02169</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.91774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -595,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -615,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -635,12 +1854,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1">
         <v>2015</v>
@@ -655,12 +1874,12 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1">
         <v>2015</v>
@@ -677,7 +1896,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>2012</v>
@@ -692,12 +1911,12 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>2012</v>
@@ -714,7 +1933,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>2012</v>
@@ -729,12 +1948,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>2012</v>
@@ -749,12 +1968,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>2012</v>
@@ -770,43 +1989,43 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5">
         <v>2015</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>0.45</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1.31</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>71</v>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5">
         <v>2015</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>0.65</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>3.19</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>71</v>
+      <c r="F12" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -814,9 +2033,1377 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0.996</v>
+      </c>
+      <c r="D2">
+        <v>-0.996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D4">
+        <v>-1.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>2.448</v>
+      </c>
+      <c r="D7">
+        <v>-0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>0.59</v>
+      </c>
+      <c r="D8">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-1.387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0.87</v>
+      </c>
+      <c r="D10">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D11">
+        <v>-1.226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D13">
+        <v>-1.746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>1.256</v>
+      </c>
+      <c r="D14">
+        <v>-1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="D16">
+        <v>-0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>1.004</v>
+      </c>
+      <c r="D17">
+        <v>-1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>0.623</v>
+      </c>
+      <c r="D18">
+        <v>-0.74</v>
+      </c>
+      <c r="E18">
+        <v>1.905</v>
+      </c>
+      <c r="F18">
+        <v>-0.71799999999999997</v>
+      </c>
+      <c r="G18">
+        <v>-1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D19">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-0.50700000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E20">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F20">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>-0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.437</v>
+      </c>
+      <c r="E21">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="F21">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="G21">
+        <v>-0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F22">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="G22">
+        <v>-0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <v>0.876</v>
+      </c>
+      <c r="D23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E23">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F23">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="G23">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D24">
+        <v>1.796</v>
+      </c>
+      <c r="E24">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-0.254</v>
+      </c>
+      <c r="G24">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.125</v>
+      </c>
+      <c r="F25">
+        <v>-0.308</v>
+      </c>
+      <c r="G25">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.84</v>
+      </c>
+      <c r="E26">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G26">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="H26">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="I26">
+        <v>-0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0.996</v>
+      </c>
+      <c r="D2">
+        <v>-0.996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D4">
+        <v>-1.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>2.448</v>
+      </c>
+      <c r="D7">
+        <v>-0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>0.59</v>
+      </c>
+      <c r="D8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F8">
+        <v>-0.71799999999999997</v>
+      </c>
+      <c r="G8">
+        <v>-1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-1.387</v>
+      </c>
+      <c r="F9">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0.87</v>
+      </c>
+      <c r="D10">
+        <v>0.151</v>
+      </c>
+      <c r="F10">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="G10">
+        <v>-0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D11">
+        <v>-1.226</v>
+      </c>
+      <c r="F11">
+        <v>-0.50700000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.188</v>
+      </c>
+      <c r="F12">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="G12">
+        <v>-0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D13">
+        <v>-1.746</v>
+      </c>
+      <c r="F13">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="G13">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>1.256</v>
+      </c>
+      <c r="D14">
+        <v>-1.0269999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-0.254</v>
+      </c>
+      <c r="G14">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="D15">
+        <v>-0.35</v>
+      </c>
+      <c r="F15">
+        <v>-0.308</v>
+      </c>
+      <c r="G15">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G16">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="H16">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="I16">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>0.623</v>
+      </c>
+      <c r="D18">
+        <v>-0.74</v>
+      </c>
+      <c r="E18">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E19">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.437</v>
+      </c>
+      <c r="E20">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D21">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <v>0.876</v>
+      </c>
+      <c r="D23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D24">
+        <v>1.796</v>
+      </c>
+      <c r="E24">
+        <v>-0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.84</v>
+      </c>
+      <c r="E26">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0.996</v>
+      </c>
+      <c r="D2">
+        <v>-0.996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D4">
+        <v>-1.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>2.448</v>
+      </c>
+      <c r="D7">
+        <v>-0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>0.59</v>
+      </c>
+      <c r="D8">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-1.387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0.87</v>
+      </c>
+      <c r="D10">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D11">
+        <v>-1.226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D13">
+        <v>-1.746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>1.256</v>
+      </c>
+      <c r="D14">
+        <v>-1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>1.089</v>
+      </c>
+      <c r="D15">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>1.254</v>
+      </c>
+      <c r="D16">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="D17">
+        <v>-0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0">
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>0.623</v>
+      </c>
+      <c r="D18">
+        <v>-0.74</v>
+      </c>
+      <c r="E18">
+        <v>1.905</v>
+      </c>
+      <c r="F18">
+        <v>-0.71799999999999997</v>
+      </c>
+      <c r="G18">
+        <v>-1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D19">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-0.50700000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="12.05">
+      <c r="C20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E20">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F20">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>-0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="12.05">
+      <c r="D21">
+        <v>0.437</v>
+      </c>
+      <c r="E21">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="F21">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="G21">
+        <v>-0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="12.05">
+      <c r="D22">
+        <v>-0.93899999999999995</v>
+      </c>
+      <c r="E22">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F22">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="G22">
+        <v>-0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0">
+      <c r="A23">
+        <v>-0.46400000000000002</v>
+      </c>
+      <c r="E23">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="G23">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="3.6">
+      <c r="A24">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="B24">
+        <v>-0.182</v>
+      </c>
+      <c r="F24">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0">
+      <c r="B25">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>0.495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
@@ -961,15 +3548,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.19028999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.25309</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.51737</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.94803000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.19406999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.2267999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.34986</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2972600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-8.8800000000000007E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0709299999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.31662000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1480900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.33810000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.08205</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.4849</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.79547000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.18865999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99587000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.81113999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1099,9 +3806,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
@@ -1131,7 +3838,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>-0.21392</v>
@@ -1145,7 +3852,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>-0.26313999999999999</v>
@@ -1159,7 +3866,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.29837000000000002</v>
@@ -1173,7 +3880,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.17868999999999999</v>
@@ -1183,640 +3890,6 @@
       </c>
       <c r="D5">
         <v>-0.51783000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-1.93</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-0.49</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-0.63</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-1.49</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.15</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-1.55</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-1.8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.21</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.02</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-1.48</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.67</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-1.61</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.17</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1.43</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-1.46</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.62</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-0.21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-3.46</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.39</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-3.62</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-0.17</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-3.66</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-0.45</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-3.76</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.05</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-1.9113</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-2.7887</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.57369999999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.3622999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1.8009999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-2.6179999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-0.32300000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.9409999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-2.0952999999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-2.3997000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.3987</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.7982999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-2.3637000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-3.0072999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.15629999999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.1637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-2.1122999999999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-2.5987</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-0.1797</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.7783000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.35915999999999998</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-2.0634600000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.61397999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.19733999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1.7377899999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-0.50654999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-9.9430000000000004E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-1.5424</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.41860999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-0.30906</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-1.7149399999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.55403000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-0.14801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-1.44841</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-0.40605999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-0.25440000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-2.6179299999999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.67095000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.7009999999999999E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-2.5816599999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-0.58552999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.26661000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-2.6389100000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.47193000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-0.11302</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-2.2362899999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.77270000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-2.02169</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-0.91774</v>
       </c>
     </row>
   </sheetData>
